--- a/pim/check/tmpfile/京东映射关系-s1010603-9765.xlsx
+++ b/pim/check/tmpfile/京东映射关系-s1010603-9765.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模型" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="838">
   <si>
     <t xml:space="preserve">京东类目</t>
   </si>
@@ -339,6 +339,9 @@
     <t xml:space="preserve">653402</t>
   </si>
   <si>
+    <t xml:space="preserve">customSize</t>
+  </si>
+  <si>
     <t xml:space="preserve">2XS</t>
   </si>
   <si>
@@ -574,6 +577,9 @@
   </si>
   <si>
     <t xml:space="preserve">653406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customColor.customColorName</t>
   </si>
   <si>
     <t xml:space="preserve">红色</t>
@@ -2539,7 +2545,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2563,6 +2569,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2638,12 +2658,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2655,11 +2679,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2804,15 +2836,15 @@
   </sheetPr>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.52"/>
@@ -2907,13 +2939,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="2"/>
       <c r="I3" s="0" t="s">
         <v>27</v>
       </c>
@@ -2937,31 +2970,31 @@
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L4" s="0" t="s">
@@ -2978,31 +3011,31 @@
       <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="L5" s="0" t="s">
@@ -3012,13 +3045,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="5"/>
       <c r="I6" s="0" t="s">
         <v>43</v>
       </c>
@@ -3065,31 +3099,31 @@
       <c r="B8" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="6" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="0" t="s">
@@ -3106,31 +3140,31 @@
       <c r="B9" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="0" t="s">
@@ -3163,13 +3197,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C11" s="5"/>
       <c r="I11" s="0" t="s">
         <v>67</v>
       </c>
@@ -3193,31 +3228,31 @@
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="0" t="s">
@@ -3366,13 +3401,13 @@
   </sheetPr>
   <dimension ref="A1:H367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.53"/>
@@ -3487,7 +3522,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>106</v>
+      </c>
       <c r="E5" s="0" t="s">
         <v>27</v>
       </c>
@@ -3495,13 +3536,19 @@
         <v>28</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="s">
+        <v>108</v>
+      </c>
       <c r="E6" s="0" t="s">
         <v>27</v>
       </c>
@@ -3509,13 +3556,19 @@
         <v>28</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>110</v>
+      </c>
       <c r="E7" s="0" t="s">
         <v>27</v>
       </c>
@@ -3523,13 +3576,19 @@
         <v>28</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>112</v>
+      </c>
       <c r="E8" s="0" t="s">
         <v>27</v>
       </c>
@@ -3537,13 +3596,19 @@
         <v>28</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>114</v>
+      </c>
       <c r="E9" s="0" t="s">
         <v>27</v>
       </c>
@@ -3551,13 +3616,19 @@
         <v>28</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>116</v>
+      </c>
       <c r="E10" s="0" t="s">
         <v>27</v>
       </c>
@@ -3565,13 +3636,19 @@
         <v>28</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>118</v>
+      </c>
       <c r="E11" s="0" t="s">
         <v>27</v>
       </c>
@@ -3579,13 +3656,19 @@
         <v>28</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>120</v>
+      </c>
       <c r="E12" s="0" t="s">
         <v>27</v>
       </c>
@@ -3593,13 +3676,19 @@
         <v>28</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>122</v>
+      </c>
       <c r="E13" s="0" t="s">
         <v>27</v>
       </c>
@@ -3607,13 +3696,19 @@
         <v>28</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>124</v>
+      </c>
       <c r="E14" s="0" t="s">
         <v>27</v>
       </c>
@@ -3621,13 +3716,19 @@
         <v>28</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>126</v>
+      </c>
       <c r="E15" s="0" t="s">
         <v>27</v>
       </c>
@@ -3635,13 +3736,19 @@
         <v>28</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>128</v>
+      </c>
       <c r="E16" s="0" t="s">
         <v>27</v>
       </c>
@@ -3649,13 +3756,19 @@
         <v>28</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>130</v>
+      </c>
       <c r="E17" s="0" t="s">
         <v>27</v>
       </c>
@@ -3663,13 +3776,19 @@
         <v>28</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>132</v>
+      </c>
       <c r="E18" s="0" t="s">
         <v>27</v>
       </c>
@@ -3677,13 +3796,19 @@
         <v>28</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>134</v>
+      </c>
       <c r="E19" s="0" t="s">
         <v>27</v>
       </c>
@@ -3691,13 +3816,19 @@
         <v>28</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>136</v>
+      </c>
       <c r="E20" s="0" t="s">
         <v>27</v>
       </c>
@@ -3705,13 +3836,19 @@
         <v>28</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>138</v>
+      </c>
       <c r="E21" s="0" t="s">
         <v>27</v>
       </c>
@@ -3719,13 +3856,19 @@
         <v>28</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>140</v>
+      </c>
       <c r="E22" s="0" t="s">
         <v>27</v>
       </c>
@@ -3733,13 +3876,19 @@
         <v>28</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>142</v>
+      </c>
       <c r="E23" s="0" t="s">
         <v>27</v>
       </c>
@@ -3747,13 +3896,19 @@
         <v>28</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>144</v>
+      </c>
       <c r="E24" s="0" t="s">
         <v>27</v>
       </c>
@@ -3761,13 +3916,19 @@
         <v>28</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>146</v>
+      </c>
       <c r="E25" s="0" t="s">
         <v>27</v>
       </c>
@@ -3775,13 +3936,19 @@
         <v>28</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>148</v>
+      </c>
       <c r="E26" s="0" t="s">
         <v>27</v>
       </c>
@@ -3789,13 +3956,19 @@
         <v>28</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>150</v>
+      </c>
       <c r="E27" s="0" t="s">
         <v>27</v>
       </c>
@@ -3803,13 +3976,19 @@
         <v>28</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>152</v>
+      </c>
       <c r="E28" s="0" t="s">
         <v>27</v>
       </c>
@@ -3817,13 +3996,19 @@
         <v>28</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>154</v>
+      </c>
       <c r="E29" s="0" t="s">
         <v>27</v>
       </c>
@@ -3831,13 +4016,19 @@
         <v>28</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>156</v>
+      </c>
       <c r="E30" s="0" t="s">
         <v>27</v>
       </c>
@@ -3845,88 +4036,88 @@
         <v>28</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>159</v>
+      <c r="G31" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="D32" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>162</v>
+      <c r="G32" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>165</v>
+      <c r="G33" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3937,10 +4128,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3951,10 +4142,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3965,10 +4156,10 @@
         <v>33</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3979,10 +4170,10 @@
         <v>33</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3993,10 +4184,10 @@
         <v>33</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4007,10 +4198,10 @@
         <v>33</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4021,10 +4212,10 @@
         <v>33</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4035,10 +4226,10 @@
         <v>33</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4049,13 +4240,19 @@
         <v>33</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>186</v>
+      </c>
       <c r="E43" s="0" t="s">
         <v>43</v>
       </c>
@@ -4063,13 +4260,19 @@
         <v>44</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H43" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="0" t="s">
+        <v>188</v>
+      </c>
       <c r="E44" s="0" t="s">
         <v>43</v>
       </c>
@@ -4077,13 +4280,19 @@
         <v>44</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>190</v>
+      </c>
       <c r="E45" s="0" t="s">
         <v>43</v>
       </c>
@@ -4091,13 +4300,19 @@
         <v>44</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>192</v>
+      </c>
       <c r="E46" s="0" t="s">
         <v>43</v>
       </c>
@@ -4105,13 +4320,19 @@
         <v>44</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>194</v>
+      </c>
       <c r="E47" s="0" t="s">
         <v>43</v>
       </c>
@@ -4119,13 +4340,19 @@
         <v>44</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>196</v>
+      </c>
       <c r="E48" s="0" t="s">
         <v>43</v>
       </c>
@@ -4133,13 +4360,19 @@
         <v>44</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>198</v>
+      </c>
       <c r="E49" s="0" t="s">
         <v>43</v>
       </c>
@@ -4147,13 +4380,19 @@
         <v>44</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>200</v>
+      </c>
       <c r="E50" s="0" t="s">
         <v>43</v>
       </c>
@@ -4161,13 +4400,19 @@
         <v>44</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>202</v>
+      </c>
       <c r="E51" s="0" t="s">
         <v>43</v>
       </c>
@@ -4175,13 +4420,19 @@
         <v>44</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>204</v>
+      </c>
       <c r="E52" s="0" t="s">
         <v>43</v>
       </c>
@@ -4189,13 +4440,19 @@
         <v>44</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>206</v>
+      </c>
       <c r="E53" s="0" t="s">
         <v>43</v>
       </c>
@@ -4203,13 +4460,19 @@
         <v>44</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>208</v>
+      </c>
       <c r="E54" s="0" t="s">
         <v>43</v>
       </c>
@@ -4217,13 +4480,19 @@
         <v>44</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>210</v>
+      </c>
       <c r="E55" s="0" t="s">
         <v>43</v>
       </c>
@@ -4231,13 +4500,19 @@
         <v>44</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>212</v>
+      </c>
       <c r="E56" s="0" t="s">
         <v>43</v>
       </c>
@@ -4245,13 +4520,19 @@
         <v>44</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>214</v>
+      </c>
       <c r="E57" s="0" t="s">
         <v>43</v>
       </c>
@@ -4259,13 +4540,19 @@
         <v>44</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>216</v>
+      </c>
       <c r="E58" s="0" t="s">
         <v>43</v>
       </c>
@@ -4273,13 +4560,19 @@
         <v>44</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>218</v>
+      </c>
       <c r="E59" s="0" t="s">
         <v>43</v>
       </c>
@@ -4287,13 +4580,19 @@
         <v>44</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>220</v>
+      </c>
       <c r="E60" s="0" t="s">
         <v>43</v>
       </c>
@@ -4301,13 +4600,19 @@
         <v>44</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>222</v>
+      </c>
       <c r="E61" s="0" t="s">
         <v>43</v>
       </c>
@@ -4315,13 +4620,19 @@
         <v>44</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>224</v>
+      </c>
       <c r="E62" s="0" t="s">
         <v>43</v>
       </c>
@@ -4329,13 +4640,19 @@
         <v>44</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>226</v>
+      </c>
       <c r="E63" s="0" t="s">
         <v>43</v>
       </c>
@@ -4343,13 +4660,19 @@
         <v>44</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>228</v>
+      </c>
       <c r="E64" s="0" t="s">
         <v>43</v>
       </c>
@@ -4357,13 +4680,19 @@
         <v>44</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>230</v>
+      </c>
       <c r="E65" s="0" t="s">
         <v>43</v>
       </c>
@@ -4371,13 +4700,19 @@
         <v>44</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>232</v>
+      </c>
       <c r="E66" s="0" t="s">
         <v>43</v>
       </c>
@@ -4385,10 +4720,10 @@
         <v>44</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4399,10 +4734,10 @@
         <v>48</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4413,10 +4748,10 @@
         <v>48</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4427,10 +4762,10 @@
         <v>48</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4441,10 +4776,10 @@
         <v>48</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4455,10 +4790,10 @@
         <v>48</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4469,10 +4804,10 @@
         <v>48</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4483,10 +4818,10 @@
         <v>48</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4497,10 +4832,10 @@
         <v>48</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4511,10 +4846,10 @@
         <v>64</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4525,10 +4860,10 @@
         <v>64</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4539,10 +4874,10 @@
         <v>64</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4553,10 +4888,10 @@
         <v>64</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4567,10 +4902,10 @@
         <v>64</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4581,13 +4916,19 @@
         <v>64</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>262</v>
+      </c>
       <c r="E81" s="0" t="s">
         <v>63</v>
       </c>
@@ -4595,13 +4936,19 @@
         <v>64</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>220</v>
+      </c>
       <c r="E82" s="0" t="s">
         <v>67</v>
       </c>
@@ -4609,13 +4956,19 @@
         <v>44</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>222</v>
+      </c>
       <c r="E83" s="0" t="s">
         <v>67</v>
       </c>
@@ -4623,13 +4976,19 @@
         <v>44</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>266</v>
+      </c>
       <c r="E84" s="0" t="s">
         <v>67</v>
       </c>
@@ -4637,13 +4996,19 @@
         <v>44</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>268</v>
+      </c>
       <c r="E85" s="0" t="s">
         <v>67</v>
       </c>
@@ -4651,13 +5016,19 @@
         <v>44</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>228</v>
+      </c>
       <c r="E86" s="0" t="s">
         <v>67</v>
       </c>
@@ -4665,13 +5036,19 @@
         <v>44</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>271</v>
+      </c>
       <c r="E87" s="0" t="s">
         <v>67</v>
       </c>
@@ -4679,13 +5056,19 @@
         <v>44</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>194</v>
+      </c>
       <c r="E88" s="0" t="s">
         <v>67</v>
       </c>
@@ -4693,13 +5076,19 @@
         <v>44</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="E89" s="0" t="s">
         <v>67</v>
       </c>
@@ -4707,13 +5096,19 @@
         <v>44</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>276</v>
+      </c>
       <c r="E90" s="0" t="s">
         <v>67</v>
       </c>
@@ -4721,13 +5116,19 @@
         <v>44</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>204</v>
+      </c>
       <c r="E91" s="0" t="s">
         <v>67</v>
       </c>
@@ -4735,13 +5136,19 @@
         <v>44</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>226</v>
+      </c>
       <c r="E92" s="0" t="s">
         <v>67</v>
       </c>
@@ -4749,13 +5156,19 @@
         <v>44</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>212</v>
+      </c>
       <c r="E93" s="0" t="s">
         <v>67</v>
       </c>
@@ -4763,13 +5176,19 @@
         <v>44</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>281</v>
+      </c>
       <c r="E94" s="0" t="s">
         <v>67</v>
       </c>
@@ -4777,13 +5196,19 @@
         <v>44</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>208</v>
+      </c>
       <c r="E95" s="0" t="s">
         <v>67</v>
       </c>
@@ -4791,13 +5216,19 @@
         <v>44</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>186</v>
+      </c>
       <c r="E96" s="0" t="s">
         <v>67</v>
       </c>
@@ -4805,13 +5236,19 @@
         <v>44</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>198</v>
+      </c>
       <c r="E97" s="0" t="s">
         <v>67</v>
       </c>
@@ -4819,13 +5256,19 @@
         <v>44</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>286</v>
+      </c>
       <c r="E98" s="0" t="s">
         <v>67</v>
       </c>
@@ -4833,13 +5276,19 @@
         <v>44</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>202</v>
+      </c>
       <c r="E99" s="0" t="s">
         <v>67</v>
       </c>
@@ -4847,13 +5296,19 @@
         <v>44</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>218</v>
+      </c>
       <c r="E100" s="0" t="s">
         <v>67</v>
       </c>
@@ -4861,13 +5316,19 @@
         <v>44</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>290</v>
+      </c>
       <c r="E101" s="0" t="s">
         <v>67</v>
       </c>
@@ -4875,13 +5336,19 @@
         <v>44</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>292</v>
+      </c>
       <c r="E102" s="0" t="s">
         <v>67</v>
       </c>
@@ -4889,13 +5356,19 @@
         <v>44</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>192</v>
+      </c>
       <c r="E103" s="0" t="s">
         <v>67</v>
       </c>
@@ -4903,13 +5376,19 @@
         <v>44</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>232</v>
+      </c>
       <c r="E104" s="0" t="s">
         <v>67</v>
       </c>
@@ -4917,114 +5396,114 @@
         <v>44</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E105" s="5" t="s">
+      <c r="C105" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G105" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="H105" s="5" t="s">
+      <c r="G105" s="7" t="s">
         <v>296</v>
       </c>
+      <c r="H105" s="7" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E106" s="5" t="s">
+      <c r="C106" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E106" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F106" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G106" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="H106" s="5" t="s">
+      <c r="G106" s="7" t="s">
         <v>299</v>
       </c>
+      <c r="H106" s="7" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E107" s="5" t="s">
+      <c r="C107" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E107" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="F107" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G107" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="H107" s="5" t="s">
+      <c r="G107" s="7" t="s">
         <v>302</v>
       </c>
+      <c r="H107" s="7" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E108" s="5" t="s">
+      <c r="C108" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E108" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="F108" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G108" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="H108" s="5" t="s">
+      <c r="G108" s="7" t="s">
         <v>305</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,10 +5514,10 @@
         <v>71</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5049,10 +5528,10 @@
         <v>71</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5063,10 +5542,10 @@
         <v>71</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5077,10 +5556,10 @@
         <v>71</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5091,10 +5570,10 @@
         <v>71</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5105,10 +5584,10 @@
         <v>71</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5119,10 +5598,10 @@
         <v>71</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5133,10 +5612,10 @@
         <v>71</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5147,10 +5626,10 @@
         <v>71</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5161,10 +5640,10 @@
         <v>76</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5175,10 +5654,10 @@
         <v>76</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5189,10 +5668,10 @@
         <v>76</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5203,10 +5682,10 @@
         <v>76</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5217,10 +5696,10 @@
         <v>76</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5231,10 +5710,10 @@
         <v>76</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,10 +5724,10 @@
         <v>76</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5259,10 +5738,10 @@
         <v>76</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5273,10 +5752,10 @@
         <v>76</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5287,10 +5766,10 @@
         <v>76</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5301,10 +5780,10 @@
         <v>76</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5315,10 +5794,10 @@
         <v>76</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5329,10 +5808,10 @@
         <v>76</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5343,10 +5822,10 @@
         <v>80</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5357,10 +5836,10 @@
         <v>80</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5371,10 +5850,10 @@
         <v>80</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5385,10 +5864,10 @@
         <v>80</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5399,10 +5878,10 @@
         <v>80</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,10 +5892,10 @@
         <v>80</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5427,10 +5906,10 @@
         <v>80</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5441,10 +5920,10 @@
         <v>80</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5455,10 +5934,10 @@
         <v>80</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5469,10 +5948,10 @@
         <v>80</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5483,10 +5962,10 @@
         <v>80</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5497,10 +5976,10 @@
         <v>80</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5511,10 +5990,10 @@
         <v>80</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5525,10 +6004,10 @@
         <v>80</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5539,10 +6018,10 @@
         <v>80</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5553,10 +6032,10 @@
         <v>80</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5567,10 +6046,10 @@
         <v>80</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5581,10 +6060,10 @@
         <v>80</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5595,10 +6074,10 @@
         <v>80</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5609,10 +6088,10 @@
         <v>80</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5623,10 +6102,10 @@
         <v>80</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5637,10 +6116,10 @@
         <v>80</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5651,10 +6130,10 @@
         <v>80</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5665,10 +6144,10 @@
         <v>80</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5679,10 +6158,10 @@
         <v>80</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5693,10 +6172,10 @@
         <v>80</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5707,10 +6186,10 @@
         <v>80</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5721,10 +6200,10 @@
         <v>80</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5735,10 +6214,10 @@
         <v>80</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5749,10 +6228,10 @@
         <v>80</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5763,10 +6242,10 @@
         <v>80</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5777,10 +6256,10 @@
         <v>80</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5791,10 +6270,10 @@
         <v>80</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5805,10 +6284,10 @@
         <v>80</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5819,10 +6298,10 @@
         <v>80</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5833,10 +6312,10 @@
         <v>80</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5847,10 +6326,10 @@
         <v>80</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5861,10 +6340,10 @@
         <v>80</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5875,10 +6354,10 @@
         <v>80</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5889,10 +6368,10 @@
         <v>80</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5903,10 +6382,10 @@
         <v>80</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5917,10 +6396,10 @@
         <v>80</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5931,10 +6410,10 @@
         <v>80</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5945,10 +6424,10 @@
         <v>80</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5959,10 +6438,10 @@
         <v>80</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5973,10 +6452,10 @@
         <v>80</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5987,10 +6466,10 @@
         <v>80</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6001,10 +6480,10 @@
         <v>80</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6015,10 +6494,10 @@
         <v>80</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6029,10 +6508,10 @@
         <v>80</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6043,10 +6522,10 @@
         <v>80</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6057,10 +6536,10 @@
         <v>80</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6071,10 +6550,10 @@
         <v>80</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6085,10 +6564,10 @@
         <v>80</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6099,10 +6578,10 @@
         <v>80</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6113,10 +6592,10 @@
         <v>80</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6127,10 +6606,10 @@
         <v>80</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6141,10 +6620,10 @@
         <v>80</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6155,10 +6634,10 @@
         <v>80</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6169,10 +6648,10 @@
         <v>80</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6183,10 +6662,10 @@
         <v>80</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6197,10 +6676,10 @@
         <v>80</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6211,10 +6690,10 @@
         <v>80</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6225,10 +6704,10 @@
         <v>80</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6239,10 +6718,10 @@
         <v>80</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6253,10 +6732,10 @@
         <v>80</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6267,10 +6746,10 @@
         <v>80</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6281,10 +6760,10 @@
         <v>80</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6295,10 +6774,10 @@
         <v>80</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,10 +6788,10 @@
         <v>80</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6323,10 +6802,10 @@
         <v>80</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6337,10 +6816,10 @@
         <v>80</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6351,10 +6830,10 @@
         <v>80</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6365,10 +6844,10 @@
         <v>80</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6379,10 +6858,10 @@
         <v>80</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6393,10 +6872,10 @@
         <v>80</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6407,10 +6886,10 @@
         <v>80</v>
       </c>
       <c r="G207" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6421,10 +6900,10 @@
         <v>80</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6435,10 +6914,10 @@
         <v>80</v>
       </c>
       <c r="G209" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6449,10 +6928,10 @@
         <v>80</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6463,10 +6942,10 @@
         <v>80</v>
       </c>
       <c r="G211" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6477,10 +6956,10 @@
         <v>80</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6491,10 +6970,10 @@
         <v>80</v>
       </c>
       <c r="G213" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6505,10 +6984,10 @@
         <v>80</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6519,10 +6998,10 @@
         <v>80</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6533,10 +7012,10 @@
         <v>80</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6547,10 +7026,10 @@
         <v>80</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6561,10 +7040,10 @@
         <v>80</v>
       </c>
       <c r="G218" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6575,10 +7054,10 @@
         <v>80</v>
       </c>
       <c r="G219" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6589,10 +7068,10 @@
         <v>80</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6603,10 +7082,10 @@
         <v>80</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6617,10 +7096,10 @@
         <v>80</v>
       </c>
       <c r="G222" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6631,10 +7110,10 @@
         <v>80</v>
       </c>
       <c r="G223" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6645,10 +7124,10 @@
         <v>80</v>
       </c>
       <c r="G224" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6659,10 +7138,10 @@
         <v>80</v>
       </c>
       <c r="G225" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6673,10 +7152,10 @@
         <v>80</v>
       </c>
       <c r="G226" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H226" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6687,10 +7166,10 @@
         <v>80</v>
       </c>
       <c r="G227" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6701,10 +7180,10 @@
         <v>80</v>
       </c>
       <c r="G228" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H228" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6715,10 +7194,10 @@
         <v>80</v>
       </c>
       <c r="G229" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6729,10 +7208,10 @@
         <v>80</v>
       </c>
       <c r="G230" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6743,10 +7222,10 @@
         <v>80</v>
       </c>
       <c r="G231" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6757,10 +7236,10 @@
         <v>80</v>
       </c>
       <c r="G232" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6771,10 +7250,10 @@
         <v>80</v>
       </c>
       <c r="G233" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6785,10 +7264,10 @@
         <v>80</v>
       </c>
       <c r="G234" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6799,10 +7278,10 @@
         <v>80</v>
       </c>
       <c r="G235" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6813,10 +7292,10 @@
         <v>80</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6827,10 +7306,10 @@
         <v>80</v>
       </c>
       <c r="G237" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6841,10 +7320,10 @@
         <v>80</v>
       </c>
       <c r="G238" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6855,10 +7334,10 @@
         <v>80</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6869,10 +7348,10 @@
         <v>80</v>
       </c>
       <c r="G240" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6883,10 +7362,10 @@
         <v>80</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6897,10 +7376,10 @@
         <v>80</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6911,10 +7390,10 @@
         <v>80</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6925,10 +7404,10 @@
         <v>80</v>
       </c>
       <c r="G244" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6939,10 +7418,10 @@
         <v>80</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6953,10 +7432,10 @@
         <v>80</v>
       </c>
       <c r="G246" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6967,10 +7446,10 @@
         <v>80</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6981,10 +7460,10 @@
         <v>80</v>
       </c>
       <c r="G248" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6995,10 +7474,10 @@
         <v>80</v>
       </c>
       <c r="G249" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7009,10 +7488,10 @@
         <v>80</v>
       </c>
       <c r="G250" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7023,10 +7502,10 @@
         <v>80</v>
       </c>
       <c r="G251" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7037,10 +7516,10 @@
         <v>80</v>
       </c>
       <c r="G252" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7051,10 +7530,10 @@
         <v>80</v>
       </c>
       <c r="G253" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7065,10 +7544,10 @@
         <v>80</v>
       </c>
       <c r="G254" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7079,10 +7558,10 @@
         <v>80</v>
       </c>
       <c r="G255" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7093,10 +7572,10 @@
         <v>80</v>
       </c>
       <c r="G256" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7107,10 +7586,10 @@
         <v>80</v>
       </c>
       <c r="G257" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7121,10 +7600,10 @@
         <v>80</v>
       </c>
       <c r="G258" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7135,10 +7614,10 @@
         <v>80</v>
       </c>
       <c r="G259" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7149,10 +7628,10 @@
         <v>80</v>
       </c>
       <c r="G260" s="0" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7163,10 +7642,10 @@
         <v>80</v>
       </c>
       <c r="G261" s="0" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7177,10 +7656,10 @@
         <v>80</v>
       </c>
       <c r="G262" s="0" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7191,10 +7670,10 @@
         <v>80</v>
       </c>
       <c r="G263" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7205,10 +7684,10 @@
         <v>80</v>
       </c>
       <c r="G264" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H264" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7219,10 +7698,10 @@
         <v>80</v>
       </c>
       <c r="G265" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7233,10 +7712,10 @@
         <v>80</v>
       </c>
       <c r="G266" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H266" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7247,10 +7726,10 @@
         <v>80</v>
       </c>
       <c r="G267" s="0" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7261,10 +7740,10 @@
         <v>80</v>
       </c>
       <c r="G268" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7275,10 +7754,10 @@
         <v>80</v>
       </c>
       <c r="G269" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7289,10 +7768,10 @@
         <v>80</v>
       </c>
       <c r="G270" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7303,10 +7782,10 @@
         <v>80</v>
       </c>
       <c r="G271" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H271" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7317,10 +7796,10 @@
         <v>80</v>
       </c>
       <c r="G272" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H272" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7331,10 +7810,10 @@
         <v>80</v>
       </c>
       <c r="G273" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H273" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7345,10 +7824,10 @@
         <v>80</v>
       </c>
       <c r="G274" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H274" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7359,10 +7838,10 @@
         <v>80</v>
       </c>
       <c r="G275" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H275" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7373,10 +7852,10 @@
         <v>80</v>
       </c>
       <c r="G276" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="H276" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7387,10 +7866,10 @@
         <v>80</v>
       </c>
       <c r="G277" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H277" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7401,10 +7880,10 @@
         <v>80</v>
       </c>
       <c r="G278" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="H278" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7415,10 +7894,10 @@
         <v>80</v>
       </c>
       <c r="G279" s="0" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H279" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7429,10 +7908,10 @@
         <v>80</v>
       </c>
       <c r="G280" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H280" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7443,10 +7922,10 @@
         <v>80</v>
       </c>
       <c r="G281" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H281" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7457,10 +7936,10 @@
         <v>80</v>
       </c>
       <c r="G282" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H282" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7471,10 +7950,10 @@
         <v>80</v>
       </c>
       <c r="G283" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H283" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7485,10 +7964,10 @@
         <v>80</v>
       </c>
       <c r="G284" s="0" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H284" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7499,10 +7978,10 @@
         <v>80</v>
       </c>
       <c r="G285" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H285" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7513,10 +7992,10 @@
         <v>80</v>
       </c>
       <c r="G286" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H286" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7527,10 +8006,10 @@
         <v>80</v>
       </c>
       <c r="G287" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H287" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7541,10 +8020,10 @@
         <v>80</v>
       </c>
       <c r="G288" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H288" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7555,10 +8034,10 @@
         <v>80</v>
       </c>
       <c r="G289" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H289" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7569,10 +8048,10 @@
         <v>80</v>
       </c>
       <c r="G290" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H290" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7583,10 +8062,10 @@
         <v>80</v>
       </c>
       <c r="G291" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H291" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7597,10 +8076,10 @@
         <v>80</v>
       </c>
       <c r="G292" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="H292" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7611,10 +8090,10 @@
         <v>80</v>
       </c>
       <c r="G293" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H293" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7625,10 +8104,10 @@
         <v>80</v>
       </c>
       <c r="G294" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H294" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7639,10 +8118,10 @@
         <v>80</v>
       </c>
       <c r="G295" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H295" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7653,10 +8132,10 @@
         <v>80</v>
       </c>
       <c r="G296" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H296" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7667,10 +8146,10 @@
         <v>80</v>
       </c>
       <c r="G297" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H297" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7681,10 +8160,10 @@
         <v>80</v>
       </c>
       <c r="G298" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H298" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7695,10 +8174,10 @@
         <v>80</v>
       </c>
       <c r="G299" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H299" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7709,10 +8188,10 @@
         <v>80</v>
       </c>
       <c r="G300" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H300" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7723,10 +8202,10 @@
         <v>80</v>
       </c>
       <c r="G301" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H301" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7737,10 +8216,10 @@
         <v>80</v>
       </c>
       <c r="G302" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H302" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7751,10 +8230,10 @@
         <v>80</v>
       </c>
       <c r="G303" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H303" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7765,10 +8244,10 @@
         <v>80</v>
       </c>
       <c r="G304" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H304" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7779,10 +8258,10 @@
         <v>80</v>
       </c>
       <c r="G305" s="0" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H305" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7793,10 +8272,10 @@
         <v>80</v>
       </c>
       <c r="G306" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H306" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7807,10 +8286,10 @@
         <v>80</v>
       </c>
       <c r="G307" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H307" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7821,10 +8300,10 @@
         <v>80</v>
       </c>
       <c r="G308" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H308" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7835,10 +8314,10 @@
         <v>80</v>
       </c>
       <c r="G309" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H309" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7849,10 +8328,10 @@
         <v>80</v>
       </c>
       <c r="G310" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H310" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7863,10 +8342,10 @@
         <v>80</v>
       </c>
       <c r="G311" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H311" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7877,10 +8356,10 @@
         <v>80</v>
       </c>
       <c r="G312" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H312" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7891,10 +8370,10 @@
         <v>80</v>
       </c>
       <c r="G313" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H313" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7905,10 +8384,10 @@
         <v>80</v>
       </c>
       <c r="G314" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H314" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7919,10 +8398,10 @@
         <v>80</v>
       </c>
       <c r="G315" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H315" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7933,10 +8412,10 @@
         <v>80</v>
       </c>
       <c r="G316" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H316" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7947,10 +8426,10 @@
         <v>80</v>
       </c>
       <c r="G317" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H317" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7961,62 +8440,62 @@
         <v>80</v>
       </c>
       <c r="G318" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H318" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="2" t="s">
+      <c r="A319" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B319" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C319" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="E319" s="2" t="s">
+      <c r="C319" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="E319" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F319" s="2" t="s">
+      <c r="F319" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G319" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="H319" s="2" t="s">
-        <v>729</v>
+      <c r="G319" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="2" t="s">
+      <c r="A320" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B320" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C320" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="E320" s="2" t="s">
+      <c r="C320" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="E320" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F320" s="2" t="s">
+      <c r="F320" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G320" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="H320" s="2" t="s">
-        <v>733</v>
+      <c r="G320" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8027,36 +8506,36 @@
         <v>58</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="2" t="s">
+      <c r="A322" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B322" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C322" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="E322" s="2" t="s">
+      <c r="C322" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="E322" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F322" s="2" t="s">
+      <c r="F322" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G322" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="H322" s="2" t="s">
-        <v>739</v>
+      <c r="G322" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8067,10 +8546,10 @@
         <v>60</v>
       </c>
       <c r="G323" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H323" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8081,10 +8560,10 @@
         <v>60</v>
       </c>
       <c r="G324" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H324" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8095,10 +8574,10 @@
         <v>60</v>
       </c>
       <c r="G325" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H325" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8109,10 +8588,10 @@
         <v>84</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8123,10 +8602,10 @@
         <v>84</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8137,10 +8616,10 @@
         <v>84</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8151,10 +8630,10 @@
         <v>84</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8165,10 +8644,10 @@
         <v>84</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8179,10 +8658,10 @@
         <v>84</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8193,10 +8672,10 @@
         <v>84</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8207,218 +8686,218 @@
         <v>84</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="4" t="s">
+      <c r="A334" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B334" s="4" t="s">
+      <c r="B334" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C334" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="D334" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="E334" s="4" t="s">
+      <c r="C334" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="E334" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F334" s="4" t="s">
+      <c r="F334" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G334" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="H334" s="4" t="s">
+      <c r="G334" s="6" t="s">
         <v>762</v>
       </c>
+      <c r="H334" s="6" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="4" t="s">
+      <c r="A335" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B335" s="4" t="s">
+      <c r="B335" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C335" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="D335" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="E335" s="4" t="s">
+      <c r="C335" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="E335" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F335" s="4" t="s">
+      <c r="F335" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G335" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="H335" s="4" t="s">
+      <c r="G335" s="6" t="s">
         <v>765</v>
       </c>
+      <c r="H335" s="6" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="4" t="s">
+      <c r="A336" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B336" s="4" t="s">
+      <c r="B336" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C336" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="D336" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="E336" s="4" t="s">
+      <c r="C336" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="E336" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F336" s="4" t="s">
+      <c r="F336" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G336" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="H336" s="4" t="s">
+      <c r="G336" s="6" t="s">
         <v>768</v>
       </c>
+      <c r="H336" s="6" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="4" t="s">
+      <c r="A337" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B337" s="4" t="s">
+      <c r="B337" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C337" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="D337" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="E337" s="4" t="s">
+      <c r="C337" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="E337" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F337" s="4" t="s">
+      <c r="F337" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G337" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="H337" s="4" t="s">
+      <c r="G337" s="6" t="s">
         <v>771</v>
       </c>
+      <c r="H337" s="6" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="4" t="s">
+      <c r="A338" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B338" s="4" t="s">
+      <c r="B338" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C338" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="D338" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="E338" s="4" t="s">
+      <c r="C338" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="E338" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F338" s="4" t="s">
+      <c r="F338" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G338" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="H338" s="4" t="s">
+      <c r="G338" s="6" t="s">
         <v>774</v>
       </c>
+      <c r="H338" s="6" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="4" t="s">
+      <c r="A339" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B339" s="4" t="s">
+      <c r="B339" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C339" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="D339" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="E339" s="4" t="s">
+      <c r="C339" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="D339" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="E339" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F339" s="4" t="s">
+      <c r="F339" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G339" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="H339" s="4" t="s">
+      <c r="G339" s="6" t="s">
         <v>777</v>
       </c>
+      <c r="H339" s="6" t="s">
+        <v>779</v>
+      </c>
     </row>
     <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="4" t="s">
+      <c r="A340" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B340" s="4" t="s">
+      <c r="B340" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C340" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="D340" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="E340" s="4" t="s">
+      <c r="C340" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="D340" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="E340" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F340" s="4" t="s">
+      <c r="F340" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G340" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="H340" s="4" t="s">
+      <c r="G340" s="6" t="s">
         <v>780</v>
       </c>
+      <c r="H340" s="6" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="4" t="s">
+      <c r="A341" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B341" s="4" t="s">
+      <c r="B341" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C341" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="D341" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="E341" s="4" t="s">
+      <c r="C341" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="D341" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="E341" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F341" s="4" t="s">
+      <c r="F341" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G341" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="H341" s="4" t="s">
+      <c r="G341" s="6" t="s">
         <v>783</v>
+      </c>
+      <c r="H341" s="6" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8429,10 +8908,10 @@
         <v>52</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8443,10 +8922,10 @@
         <v>54</v>
       </c>
       <c r="G343" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="H343" s="0" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8457,10 +8936,10 @@
         <v>54</v>
       </c>
       <c r="G344" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H344" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8471,10 +8950,10 @@
         <v>54</v>
       </c>
       <c r="G345" s="0" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H345" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8485,10 +8964,10 @@
         <v>54</v>
       </c>
       <c r="G346" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="H346" s="0" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8499,10 +8978,10 @@
         <v>54</v>
       </c>
       <c r="G347" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H347" s="0" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8513,10 +8992,10 @@
         <v>54</v>
       </c>
       <c r="G348" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="H348" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8527,10 +9006,10 @@
         <v>54</v>
       </c>
       <c r="G349" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="H349" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8541,10 +9020,10 @@
         <v>86</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D350" s="0" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8555,10 +9034,10 @@
         <v>86</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8569,10 +9048,10 @@
         <v>86</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D352" s="0" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8583,10 +9062,10 @@
         <v>86</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8597,10 +9076,10 @@
         <v>86</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8611,192 +9090,192 @@
         <v>86</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="3" t="s">
+      <c r="A356" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B356" s="3" t="s">
+      <c r="B356" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C356" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="D356" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="E356" s="3" t="s">
+      <c r="C356" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="D356" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="E356" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F356" s="3" t="s">
+      <c r="F356" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G356" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="H356" s="3" t="s">
+      <c r="G356" s="4" t="s">
         <v>806</v>
       </c>
+      <c r="H356" s="4" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="3" t="s">
+      <c r="A357" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B357" s="3" t="s">
+      <c r="B357" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C357" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="D357" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="E357" s="3" t="s">
+      <c r="C357" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="D357" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="E357" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F357" s="3" t="s">
+      <c r="F357" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G357" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="H357" s="3" t="s">
+      <c r="G357" s="4" t="s">
         <v>809</v>
       </c>
+      <c r="H357" s="4" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="3" t="s">
+      <c r="A358" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B358" s="3" t="s">
+      <c r="B358" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C358" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="E358" s="3" t="s">
+      <c r="C358" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="D358" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="E358" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F358" s="3" t="s">
+      <c r="F358" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G358" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="H358" s="3" t="s">
+      <c r="G358" s="4" t="s">
         <v>812</v>
       </c>
+      <c r="H358" s="4" t="s">
+        <v>814</v>
+      </c>
     </row>
     <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="3" t="s">
+      <c r="A359" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B359" s="3" t="s">
+      <c r="B359" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C359" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="D359" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="E359" s="3" t="s">
+      <c r="C359" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="D359" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="E359" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F359" s="3" t="s">
+      <c r="F359" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G359" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="H359" s="3" t="s">
+      <c r="G359" s="4" t="s">
         <v>815</v>
       </c>
+      <c r="H359" s="4" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="3" t="s">
+      <c r="A360" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B360" s="3" t="s">
+      <c r="B360" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C360" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="E360" s="3" t="s">
+      <c r="C360" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="D360" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="E360" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F360" s="3" t="s">
+      <c r="F360" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G360" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="H360" s="3" t="s">
+      <c r="G360" s="4" t="s">
         <v>818</v>
       </c>
+      <c r="H360" s="4" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="3" t="s">
+      <c r="A361" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B361" s="3" t="s">
+      <c r="B361" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C361" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="D361" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="E361" s="3" t="s">
+      <c r="C361" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D361" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="E361" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F361" s="3" t="s">
+      <c r="F361" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G361" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="H361" s="3" t="s">
+      <c r="G361" s="4" t="s">
         <v>821</v>
       </c>
+      <c r="H361" s="4" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="3" t="s">
+      <c r="A362" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B362" s="3" t="s">
+      <c r="B362" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C362" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="E362" s="3" t="s">
+      <c r="C362" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D362" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E362" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F362" s="3" t="s">
+      <c r="F362" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G362" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="H362" s="3" t="s">
+      <c r="G362" s="4" t="s">
         <v>824</v>
+      </c>
+      <c r="H362" s="4" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8807,36 +9286,36 @@
         <v>38</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="3" t="s">
+      <c r="A364" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B364" s="3" t="s">
+      <c r="B364" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C364" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="D364" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="E364" s="3" t="s">
+      <c r="C364" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="D364" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="E364" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F364" s="3" t="s">
+      <c r="F364" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G364" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="H364" s="3" t="s">
+      <c r="G364" s="4" t="s">
         <v>829</v>
+      </c>
+      <c r="H364" s="4" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8847,10 +9326,10 @@
         <v>40</v>
       </c>
       <c r="G365" s="0" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="H365" s="0" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8861,10 +9340,10 @@
         <v>88</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8875,10 +9354,10 @@
         <v>88</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D367" s="0" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
